--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8A8FA-967B-4613-9502-67E4DD6560A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97DF8DC-B682-4A01-8A1A-7F906EC12628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1062,9 +1062,8 @@
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.88671875" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="8" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
     <col min="13" max="26" width="8.6640625" customWidth="1"/>
@@ -1142,7 +1141,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="4">
         <v>5</v>
@@ -1192,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3" s="4">
         <v>5</v>
@@ -1242,7 +1241,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4">
         <v>5</v>
@@ -1292,7 +1291,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" s="4">
         <v>5</v>
@@ -1342,7 +1341,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -1392,7 +1391,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -1442,7 +1441,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H8" s="4">
         <v>5</v>
@@ -1492,7 +1491,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
         <v>5</v>
@@ -1542,7 +1541,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" s="4">
         <v>5</v>
@@ -1594,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4">
         <v>5</v>
@@ -1646,7 +1645,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
         <v>5</v>
@@ -1698,7 +1697,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="4">
         <v>5</v>
@@ -1750,7 +1749,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -1800,7 +1799,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <v>5</v>
@@ -1850,7 +1849,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="4">
         <v>5</v>
@@ -1900,7 +1899,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" s="4">
         <v>5</v>
@@ -1950,7 +1949,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4">
         <v>5</v>
@@ -2000,7 +1999,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
         <v>5</v>
@@ -2050,7 +2049,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4">
         <v>5</v>
@@ -2100,7 +2099,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21" s="4">
         <v>5</v>
@@ -2150,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H22" s="4">
         <v>5</v>
@@ -2200,7 +2199,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="4">
         <v>5</v>
@@ -2250,7 +2249,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24" s="4">
         <v>5</v>
@@ -2302,7 +2301,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="4">
         <v>5</v>
@@ -2352,7 +2351,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H26" s="4">
         <v>5</v>
@@ -2402,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="4">
         <v>5</v>
@@ -2454,7 +2453,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="4">
         <v>5</v>
@@ -2504,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H29" s="4">
         <v>5</v>
@@ -2554,7 +2553,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30" s="4">
         <v>5</v>
@@ -2604,7 +2603,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H31" s="4">
         <v>5</v>
@@ -2654,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32" s="4">
         <v>5</v>
@@ -2704,7 +2703,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="4">
         <v>5</v>
@@ -2754,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H34" s="4">
         <v>5</v>
@@ -2804,7 +2803,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="4">
         <v>5</v>
@@ -2854,7 +2853,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H36" s="4">
         <v>5</v>
@@ -2904,7 +2903,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H37" s="4">
         <v>5</v>
@@ -2954,7 +2953,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H38" s="4">
         <v>5</v>
@@ -3004,7 +3003,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H39" s="4">
         <v>5</v>
@@ -3054,7 +3053,7 @@
         <v>16</v>
       </c>
       <c r="G40" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40" s="4">
         <v>5</v>
@@ -3104,7 +3103,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H41" s="4">
         <v>5</v>
@@ -3156,7 +3155,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H42" s="4">
         <v>5</v>
@@ -3206,7 +3205,7 @@
         <v>16</v>
       </c>
       <c r="G43" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H43" s="4">
         <v>5</v>
@@ -3256,7 +3255,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H44" s="4">
         <v>5</v>
@@ -3306,7 +3305,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H45" s="4">
         <v>5</v>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97DF8DC-B682-4A01-8A1A-7F906EC12628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCE0B1-0DD6-450F-88C9-F2B7438C30DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROIs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -358,6 +358,9 @@
   </si>
   <si>
     <t>[[[-0.486832, 39.351813], [-0.486832, 39.553816], [-0.300751, 39.553816], [-0.300751, 39.351813], [-0.486832, 39.351813]]]</t>
+  </si>
+  <si>
+    <t>('2021-04-07','2021-05-07')</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1053,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1282,7 +1285,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
@@ -1332,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>26</v>
@@ -1382,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>26</v>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCCE0B1-0DD6-450F-88C9-F2B7438C30DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF6C3A9-DD5D-4B19-AB98-89986BAB0A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D16" sqref="D16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1385,7 +1385,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>26</v>
@@ -1843,7 +1843,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>26</v>
@@ -1893,7 +1893,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
@@ -30080,17 +30080,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:K1000">
-    <cfRule type="expression" dxfId="47" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$K2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:K1000">
-    <cfRule type="expression" dxfId="46" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$K2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:K1000">
-    <cfRule type="expression" dxfId="45" priority="3">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$K2="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30107,17 +30107,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:J27 F28:H31">
-    <cfRule type="expression" dxfId="44" priority="5">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:J27 F28:H31">
-    <cfRule type="expression" dxfId="43" priority="6">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:J27 F28:H31">
-    <cfRule type="expression" dxfId="42" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30134,212 +30134,212 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="41" priority="9">
+    <cfRule type="expression" dxfId="44" priority="9">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="40" priority="10">
+    <cfRule type="expression" dxfId="43" priority="10">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="39" priority="11">
+    <cfRule type="expression" dxfId="42" priority="11">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="38" priority="12">
+    <cfRule type="expression" dxfId="41" priority="12">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="37" priority="13">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="36" priority="14">
+    <cfRule type="expression" dxfId="39" priority="14">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="35" priority="15">
+    <cfRule type="expression" dxfId="38" priority="15">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="34" priority="16">
+    <cfRule type="expression" dxfId="37" priority="16">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="33" priority="17">
+    <cfRule type="expression" dxfId="36" priority="17">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="32" priority="18">
+    <cfRule type="expression" dxfId="35" priority="18">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="31" priority="19">
+    <cfRule type="expression" dxfId="34" priority="19">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="30" priority="20">
+    <cfRule type="expression" dxfId="33" priority="20">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="29" priority="21">
+    <cfRule type="expression" dxfId="32" priority="21">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="28" priority="22">
+    <cfRule type="expression" dxfId="31" priority="22">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="27" priority="23">
+    <cfRule type="expression" dxfId="30" priority="23">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="26" priority="24">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="25" priority="25">
+    <cfRule type="expression" dxfId="28" priority="25">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="22" priority="28">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="21" priority="29">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="20" priority="30">
+    <cfRule type="expression" dxfId="23" priority="30">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="19" priority="31">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="21" priority="32">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="17" priority="33">
+    <cfRule type="expression" dxfId="20" priority="33">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="16" priority="34">
+    <cfRule type="expression" dxfId="19" priority="34">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="15" priority="35">
+    <cfRule type="expression" dxfId="18" priority="35">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="14" priority="36">
+    <cfRule type="expression" dxfId="17" priority="36">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="13" priority="37">
+    <cfRule type="expression" dxfId="16" priority="37">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="12" priority="38">
+    <cfRule type="expression" dxfId="15" priority="38">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="11" priority="39">
+    <cfRule type="expression" dxfId="14" priority="39">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="10" priority="40">
+    <cfRule type="expression" dxfId="13" priority="40">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="9" priority="41">
+    <cfRule type="expression" dxfId="12" priority="41">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="8" priority="42">
+    <cfRule type="expression" dxfId="11" priority="42">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="7" priority="43">
+    <cfRule type="expression" dxfId="10" priority="43">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="6" priority="44">
+    <cfRule type="expression" dxfId="9" priority="44">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="5" priority="45">
+    <cfRule type="expression" dxfId="8" priority="45">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="4" priority="46">
+    <cfRule type="expression" dxfId="7" priority="46">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="3" priority="47">
+    <cfRule type="expression" dxfId="6" priority="47">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="2" priority="48">
+    <cfRule type="expression" dxfId="5" priority="48">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="1" priority="49">
+    <cfRule type="expression" dxfId="4" priority="49">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="0" priority="50">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF6C3A9-DD5D-4B19-AB98-89986BAB0A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85879C43-02FB-4E23-BE06-205D643BA4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D17"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2111,7 +2111,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>17</v>
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>20</v>
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>23</v>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85879C43-02FB-4E23-BE06-205D643BA4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6F76F-C7CC-4E7D-8537-08C3306F7F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2295,7 +2295,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>26</v>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B6F76F-C7CC-4E7D-8537-08C3306F7F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11EF73F-9862-48D6-9649-A65A6EF610BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1052,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2447,7 +2447,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -2497,7 +2497,7 @@
         <v>77</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11EF73F-9862-48D6-9649-A65A6EF610BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4886B46-D24A-4D85-9E4D-F140443417AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2647,7 +2647,7 @@
         <v>83</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>15</v>
@@ -2697,7 +2697,7 @@
         <v>85</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4886B46-D24A-4D85-9E4D-F140443417AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D419C35-7403-4A99-82BD-74901BFD9A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D419C35-7403-4A99-82BD-74901BFD9A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B43695-5C90-488C-9E69-AC660CF3C3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
   <si>
     <t>name</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>('2021-04-07','2021-05-07')</t>
+  </si>
+  <si>
+    <t>('2021-07-07','2021-08-07')</t>
+  </si>
+  <si>
+    <t>('2021-08-07','2021-09-07')</t>
   </si>
 </sst>
 </file>
@@ -1052,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1285,7 +1291,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>26</v>
@@ -1335,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>26</v>
@@ -1843,7 +1849,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>26</v>
@@ -1861,7 +1867,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>17</v>
@@ -1893,7 +1899,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>26</v>
@@ -1911,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>23</v>
@@ -2243,7 +2249,7 @@
         <v>65</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>26</v>
@@ -2295,7 +2301,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>26</v>
@@ -2447,7 +2453,7 @@
         <v>75</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -2497,7 +2503,7 @@
         <v>77</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBDD51B-DB77-44BF-B4F7-B2AB2F1CC241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DEA98E-B30B-420C-975D-6AE88E2C93C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="119">
   <si>
     <t>name</t>
   </si>
@@ -377,12 +377,18 @@
   <si>
     <t>test</t>
   </si>
+  <si>
+    <t>aguasclaras</t>
+  </si>
+  <si>
+    <t>aguasclaras_buffed</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +411,23 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,6 +438,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -447,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -465,11 +498,71 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="54">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1065,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1000"/>
+  <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K45"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1249,14 +1342,14 @@
       <c r="AA3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>21</v>
+      <c r="A4" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="B4" s="4">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>14</v>
@@ -1283,7 +1376,7 @@
         <v>115</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -1302,20 +1395,20 @@
       <c r="AA4" s="4"/>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>24</v>
+      <c r="A5" s="9" t="s">
+        <v>118</v>
       </c>
       <c r="B5" s="4">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
+      <c r="C5" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>16</v>
@@ -1336,7 +1429,7 @@
         <v>115</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1356,19 +1449,19 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B6" s="4">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>16</v>
@@ -1389,7 +1482,7 @@
         <v>115</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1409,13 +1502,13 @@
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
@@ -1442,7 +1535,7 @@
         <v>115</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1462,13 +1555,13 @@
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" s="4">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
@@ -1495,7 +1588,7 @@
         <v>115</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1515,13 +1608,13 @@
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B9" s="4">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
@@ -1568,19 +1661,19 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4">
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>16</v>
@@ -1603,9 +1696,7 @@
       <c r="L10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
@@ -1623,19 +1714,19 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4">
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>16</v>
@@ -1656,11 +1747,9 @@
         <v>115</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -1678,13 +1767,13 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -1714,7 +1803,7 @@
         <v>17</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1733,13 +1822,13 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B13" s="4">
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
@@ -1769,7 +1858,7 @@
         <v>20</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1788,13 +1877,13 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4">
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -1818,12 +1907,14 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="4"/>
+      <c r="M14" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
@@ -1841,13 +1932,13 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B15" s="4">
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
@@ -1871,12 +1962,14 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -1894,19 +1987,19 @@
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B16" s="4">
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>16</v>
@@ -1921,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>116</v>
@@ -1947,19 +2040,19 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B17" s="4">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>16</v>
@@ -1974,13 +2067,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2000,19 +2093,19 @@
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>16</v>
@@ -2027,10 +2120,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>17</v>
@@ -2053,19 +2146,19 @@
     </row>
     <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19" s="4">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>16</v>
@@ -2080,13 +2173,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>115</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2106,13 +2199,13 @@
     </row>
     <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="4">
         <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -2139,7 +2232,7 @@
         <v>115</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2159,13 +2252,13 @@
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B21" s="4">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -2186,13 +2279,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2212,13 +2305,13 @@
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B22" s="4">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
@@ -2239,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2265,13 +2358,13 @@
     </row>
     <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>14</v>
@@ -2292,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2318,19 +2411,19 @@
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" s="4">
         <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>16</v>
@@ -2345,17 +2438,15 @@
         <v>1</v>
       </c>
       <c r="J24" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2373,19 +2464,19 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>16</v>
@@ -2400,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>115</v>
@@ -2426,19 +2517,19 @@
     </row>
     <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>16</v>
@@ -2456,12 +2547,14 @@
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="4"/>
+      <c r="M26" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2479,19 +2572,19 @@
     </row>
     <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4">
         <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>16</v>
@@ -2509,14 +2602,12 @@
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
@@ -2534,16 +2625,16 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B28" s="4">
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -2587,16 +2678,16 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B29" s="4">
         <v>21</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>
@@ -2622,7 +2713,9 @@
       <c r="L29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M29" s="4"/>
+      <c r="M29" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -2640,16 +2733,16 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B30" s="4">
         <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
@@ -2693,16 +2786,16 @@
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B31" s="4">
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
@@ -2746,16 +2839,16 @@
     </row>
     <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B32" s="4">
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>15</v>
@@ -2776,7 +2869,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>17</v>
@@ -2799,16 +2892,16 @@
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="4">
         <v>21</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2829,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>20</v>
@@ -2852,16 +2945,16 @@
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B34" s="4">
         <v>21</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
@@ -2905,16 +2998,16 @@
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B35" s="4">
         <v>21</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -2958,13 +3051,13 @@
     </row>
     <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B36" s="4">
         <v>21</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>14</v>
@@ -2988,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>17</v>
@@ -3011,13 +3104,13 @@
     </row>
     <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B37" s="4">
         <v>21</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>14</v>
@@ -3044,7 +3137,7 @@
         <v>115</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3064,13 +3157,13 @@
     </row>
     <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B38" s="4">
         <v>21</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>14</v>
@@ -3094,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
@@ -3117,13 +3210,13 @@
     </row>
     <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B39" s="4">
         <v>21</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>14</v>
@@ -3170,13 +3263,13 @@
     </row>
     <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B40" s="4">
         <v>21</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>14</v>
@@ -3203,7 +3296,7 @@
         <v>115</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3223,13 +3316,13 @@
     </row>
     <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B41" s="4">
         <v>21</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>14</v>
@@ -3253,14 +3346,12 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
@@ -3278,13 +3369,13 @@
     </row>
     <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B42" s="4">
         <v>21</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>14</v>
@@ -3308,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>17</v>
@@ -3331,13 +3422,13 @@
     </row>
     <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4">
         <v>21</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>14</v>
@@ -3361,12 +3452,14 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M43" s="4"/>
+      <c r="M43" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3384,13 +3477,13 @@
     </row>
     <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B44" s="4">
         <v>21</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>14</v>
@@ -3437,13 +3530,13 @@
     </row>
     <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B45" s="4">
         <v>21</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>14</v>
@@ -3467,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M45" s="4"/>
       <c r="N45" s="4"/>
@@ -3489,18 +3582,42 @@
       <c r="AA45" s="4"/>
     </row>
     <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="6"/>
+      <c r="A46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="4">
+        <v>21</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="H46" s="4">
+        <v>5</v>
+      </c>
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -3518,18 +3635,42 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="4">
+        <v>21</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4">
+        <v>5</v>
+      </c>
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -31183,23 +31324,384 @@
       <c r="Z1000" s="4"/>
       <c r="AA1000" s="4"/>
     </row>
+    <row r="1001" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1001" s="4"/>
+      <c r="B1001" s="4"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="4"/>
+      <c r="E1001" s="4"/>
+      <c r="F1001" s="6"/>
+      <c r="G1001" s="4"/>
+      <c r="H1001" s="4"/>
+      <c r="I1001" s="4"/>
+      <c r="J1001" s="4"/>
+      <c r="K1001" s="4"/>
+      <c r="L1001" s="6"/>
+      <c r="M1001" s="4"/>
+      <c r="N1001" s="4"/>
+      <c r="O1001" s="4"/>
+      <c r="P1001" s="4"/>
+      <c r="Q1001" s="4"/>
+      <c r="R1001" s="4"/>
+      <c r="S1001" s="4"/>
+      <c r="T1001" s="4"/>
+      <c r="U1001" s="4"/>
+      <c r="V1001" s="4"/>
+      <c r="W1001" s="4"/>
+      <c r="X1001" s="4"/>
+      <c r="Y1001" s="4"/>
+      <c r="Z1001" s="4"/>
+      <c r="AA1001" s="4"/>
+    </row>
+    <row r="1002" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1002" s="4"/>
+      <c r="B1002" s="4"/>
+      <c r="C1002" s="5"/>
+      <c r="D1002" s="4"/>
+      <c r="E1002" s="4"/>
+      <c r="F1002" s="6"/>
+      <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
+      <c r="I1002" s="4"/>
+      <c r="J1002" s="4"/>
+      <c r="K1002" s="4"/>
+      <c r="L1002" s="6"/>
+      <c r="M1002" s="4"/>
+      <c r="N1002" s="4"/>
+      <c r="O1002" s="4"/>
+      <c r="P1002" s="4"/>
+      <c r="Q1002" s="4"/>
+      <c r="R1002" s="4"/>
+      <c r="S1002" s="4"/>
+      <c r="T1002" s="4"/>
+      <c r="U1002" s="4"/>
+      <c r="V1002" s="4"/>
+      <c r="W1002" s="4"/>
+      <c r="X1002" s="4"/>
+      <c r="Y1002" s="4"/>
+      <c r="Z1002" s="4"/>
+      <c r="AA1002" s="4"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L1000">
-    <cfRule type="expression" dxfId="47" priority="1">
+  <conditionalFormatting sqref="A2:L3 D4:L5 A6:L1002">
+    <cfRule type="expression" dxfId="53" priority="11">
       <formula>$L2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L1000">
-    <cfRule type="expression" dxfId="46" priority="2">
+  <conditionalFormatting sqref="A2:L3 D4:L5 A6:L1002">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>$L2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L1000">
-    <cfRule type="expression" dxfId="45" priority="3">
+  <conditionalFormatting sqref="A2:L3 D4:L5 A6:L1002">
+    <cfRule type="expression" dxfId="51" priority="13">
       <formula>$L2="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1000">
+  <conditionalFormatting sqref="B1:B3 B6:B1002">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:K29 F30:H33">
+    <cfRule type="expression" dxfId="50" priority="15">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:K29 F30:H33">
+    <cfRule type="expression" dxfId="49" priority="16">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28:K29 F30:H33">
+    <cfRule type="expression" dxfId="48" priority="17">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3 B6:B1002">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:H40 F42:H43">
+    <cfRule type="expression" dxfId="47" priority="19">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:H40 F42:H43">
+    <cfRule type="expression" dxfId="46" priority="20">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:H40 F42:H43">
+    <cfRule type="expression" dxfId="45" priority="21">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:H41">
+    <cfRule type="expression" dxfId="44" priority="22">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:H41">
+    <cfRule type="expression" dxfId="43" priority="23">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41:H41">
+    <cfRule type="expression" dxfId="42" priority="24">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H44">
+    <cfRule type="expression" dxfId="41" priority="25">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H44">
+    <cfRule type="expression" dxfId="40" priority="26">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H44">
+    <cfRule type="expression" dxfId="39" priority="27">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H44">
+    <cfRule type="expression" dxfId="38" priority="28">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H44">
+    <cfRule type="expression" dxfId="37" priority="29">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44:H44">
+    <cfRule type="expression" dxfId="36" priority="30">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:H45">
+    <cfRule type="expression" dxfId="35" priority="31">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:H45">
+    <cfRule type="expression" dxfId="34" priority="32">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:H45">
+    <cfRule type="expression" dxfId="33" priority="33">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:H45">
+    <cfRule type="expression" dxfId="32" priority="34">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:H45">
+    <cfRule type="expression" dxfId="31" priority="35">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45:H45">
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:H46">
+    <cfRule type="expression" dxfId="29" priority="37">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:H46">
+    <cfRule type="expression" dxfId="28" priority="38">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:H46">
+    <cfRule type="expression" dxfId="27" priority="39">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:H46">
+    <cfRule type="expression" dxfId="26" priority="40">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:H46">
+    <cfRule type="expression" dxfId="25" priority="41">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:H46">
+    <cfRule type="expression" dxfId="24" priority="42">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="23" priority="43">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="22" priority="44">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="21" priority="45">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="20" priority="46">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="19" priority="47">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="18" priority="48">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="17" priority="49">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="16" priority="50">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="15" priority="51">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="14" priority="52">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="13" priority="53">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48:H48">
+    <cfRule type="expression" dxfId="12" priority="54">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="11" priority="55">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="10" priority="56">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="9" priority="57">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="8" priority="58">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="7" priority="59">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F49:H49">
+    <cfRule type="expression" dxfId="6" priority="60">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$L4="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>$L4="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>$L4="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$L5="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$L5="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$L5="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -31211,23 +31713,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:K27 F28:H31">
-    <cfRule type="expression" dxfId="44" priority="5">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:K27 F28:H31">
-    <cfRule type="expression" dxfId="43" priority="6">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26:K27 F28:H31">
-    <cfRule type="expression" dxfId="42" priority="7">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1000">
-    <cfRule type="colorScale" priority="8">
+  <conditionalFormatting sqref="B5">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31238,216 +31725,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="41" priority="9">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="40" priority="10">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F32:H38 F40:H41">
-    <cfRule type="expression" dxfId="39" priority="11">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="38" priority="12">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="37" priority="13">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F39:H39">
-    <cfRule type="expression" dxfId="36" priority="14">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="35" priority="15">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="34" priority="16">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="33" priority="17">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="32" priority="18">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="31" priority="19">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H42">
-    <cfRule type="expression" dxfId="30" priority="20">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="29" priority="21">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="28" priority="22">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="27" priority="23">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="26" priority="24">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="25" priority="25">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F43:H43">
-    <cfRule type="expression" dxfId="24" priority="26">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="23" priority="27">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="22" priority="28">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="21" priority="29">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="20" priority="30">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="19" priority="31">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
-    <cfRule type="expression" dxfId="18" priority="32">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="17" priority="33">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="16" priority="34">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="15" priority="35">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="14" priority="36">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="13" priority="37">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
-    <cfRule type="expression" dxfId="12" priority="38">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="11" priority="39">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="10" priority="40">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="9" priority="41">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="8" priority="42">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="7" priority="43">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
-    <cfRule type="expression" dxfId="6" priority="44">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="5" priority="45">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="4" priority="46">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="3" priority="47">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="2" priority="48">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="1" priority="49">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
-    <cfRule type="expression" dxfId="0" priority="50">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DEA98E-B30B-420C-975D-6AE88E2C93C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06760CD7-AC31-4EC6-880D-C059F7A40185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="118">
   <si>
     <t>name</t>
   </si>
@@ -358,9 +358,6 @@
   </si>
   <si>
     <t>[[[-0.486832, 39.351813], [-0.486832, 39.553816], [-0.300751, 39.553816], [-0.300751, 39.351813], [-0.486832, 39.351813]]]</t>
-  </si>
-  <si>
-    <t>('2021-04-07','2021-05-07')</t>
   </si>
   <si>
     <t>('2021-07-07','2021-08-07')</t>
@@ -1161,7 +1158,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1212,7 +1209,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -1267,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>17</v>
@@ -1320,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>20</v>
@@ -1343,7 +1340,7 @@
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="4">
         <v>21</v>
@@ -1373,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>17</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="4">
         <v>21</v>
@@ -1426,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>20</v>
@@ -1479,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>23</v>
@@ -1532,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>17</v>
@@ -1585,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>20</v>
@@ -1638,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>23</v>
@@ -1691,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>17</v>
@@ -1744,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>23</v>
@@ -1797,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L12" s="6" t="s">
         <v>17</v>
@@ -1852,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>20</v>
@@ -1907,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>17</v>
@@ -1962,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>20</v>
@@ -2017,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>17</v>
@@ -2070,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>20</v>
@@ -2123,7 +2120,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>17</v>
@@ -2176,7 +2173,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>23</v>
@@ -2229,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>17</v>
@@ -2282,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>20</v>
@@ -2335,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>23</v>
@@ -2388,7 +2385,7 @@
         <v>18</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L23" s="6" t="s">
         <v>17</v>
@@ -2441,7 +2438,7 @@
         <v>18</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>20</v>
@@ -2494,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>23</v>
@@ -2526,7 +2523,7 @@
         <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>26</v>
@@ -2535,7 +2532,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" s="4">
         <v>5</v>
@@ -2547,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L26" s="6" t="s">
         <v>17</v>
@@ -2581,7 +2578,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>26</v>
@@ -2602,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>23</v>
@@ -2655,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L28" s="6" t="s">
         <v>17</v>
@@ -2708,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>20</v>
@@ -2742,7 +2739,7 @@
         <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
@@ -2763,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L30" s="6" t="s">
         <v>17</v>
@@ -2795,7 +2792,7 @@
         <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
@@ -2816,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>20</v>
@@ -2869,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L32" s="6" t="s">
         <v>17</v>
@@ -2922,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>20</v>
@@ -2954,7 +2951,7 @@
         <v>83</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
@@ -2975,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L34" s="6" t="s">
         <v>17</v>
@@ -3007,7 +3004,7 @@
         <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -3028,7 +3025,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>20</v>
@@ -3081,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L36" s="6" t="s">
         <v>17</v>
@@ -3134,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>20</v>
@@ -3187,7 +3184,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>17</v>
@@ -3240,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L39" s="6" t="s">
         <v>17</v>
@@ -3293,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>20</v>
@@ -3346,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>17</v>
@@ -3399,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>17</v>
@@ -3452,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>17</v>
@@ -3507,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>17</v>
@@ -3560,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>17</v>
@@ -3613,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L46" s="6" t="s">
         <v>17</v>
@@ -3666,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L47" s="6" t="s">
         <v>20</v>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06760CD7-AC31-4EC6-880D-C059F7A40185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E52477B-DBEE-4594-9A7E-BF79DE060597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="120">
   <si>
     <t>name</t>
   </si>
@@ -379,6 +379,12 @@
   </si>
   <si>
     <t>aguasclaras_buffed</t>
+  </si>
+  <si>
+    <t>('2021-05-07','2021-07-07')</t>
+  </si>
+  <si>
+    <t>('2021-04-07','2021-07-07')</t>
   </si>
 </sst>
 </file>
@@ -1157,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1252,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="G2" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H2" s="4">
         <v>5</v>
@@ -1305,7 +1311,7 @@
         <v>16</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="4">
         <v>5</v>
@@ -1358,7 +1364,7 @@
         <v>16</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="4">
         <v>5</v>
@@ -1411,7 +1417,7 @@
         <v>16</v>
       </c>
       <c r="G5" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="4">
         <v>5</v>
@@ -1464,7 +1470,7 @@
         <v>16</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="4">
         <v>5</v>
@@ -1517,7 +1523,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="4">
         <v>5</v>
@@ -1570,7 +1576,7 @@
         <v>16</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="4">
         <v>5</v>
@@ -1623,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H9" s="4">
         <v>5</v>
@@ -1676,7 +1682,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="4">
         <v>5</v>
@@ -1729,7 +1735,7 @@
         <v>16</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="4">
         <v>5</v>
@@ -1782,7 +1788,7 @@
         <v>16</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H12" s="4">
         <v>5</v>
@@ -1837,7 +1843,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H13" s="4">
         <v>5</v>
@@ -1892,7 +1898,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4">
         <v>5</v>
@@ -1947,7 +1953,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4">
         <v>5</v>
@@ -2002,7 +2008,7 @@
         <v>16</v>
       </c>
       <c r="G16" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="4">
         <v>5</v>
@@ -2055,7 +2061,7 @@
         <v>16</v>
       </c>
       <c r="G17" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H17" s="4">
         <v>5</v>
@@ -2108,7 +2114,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="4">
         <v>5</v>
@@ -2161,7 +2167,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="4">
         <v>5</v>
@@ -2214,7 +2220,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="4">
         <v>5</v>
@@ -2320,7 +2326,7 @@
         <v>16</v>
       </c>
       <c r="G22" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H22" s="4">
         <v>5</v>
@@ -2373,7 +2379,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H23" s="4">
         <v>5</v>
@@ -2417,7 +2423,7 @@
         <v>62</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
@@ -2426,7 +2432,7 @@
         <v>16</v>
       </c>
       <c r="G24" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="4">
         <v>5</v>
@@ -2470,7 +2476,7 @@
         <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
@@ -2479,7 +2485,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" s="4">
         <v>5</v>
@@ -2532,7 +2538,7 @@
         <v>16</v>
       </c>
       <c r="G26" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H26" s="4">
         <v>5</v>
@@ -2587,7 +2593,7 @@
         <v>16</v>
       </c>
       <c r="G27" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H27" s="4">
         <v>5</v>
@@ -2640,7 +2646,7 @@
         <v>16</v>
       </c>
       <c r="G28" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="4">
         <v>5</v>
@@ -2693,7 +2699,7 @@
         <v>16</v>
       </c>
       <c r="G29" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="4">
         <v>5</v>
@@ -2748,7 +2754,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H30" s="4">
         <v>5</v>
@@ -2801,7 +2807,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="4">
         <v>5</v>
@@ -2854,7 +2860,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H32" s="4">
         <v>5</v>
@@ -2907,7 +2913,7 @@
         <v>16</v>
       </c>
       <c r="G33" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H33" s="4">
         <v>5</v>
@@ -2960,7 +2966,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H34" s="4">
         <v>5</v>
@@ -3013,7 +3019,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="4">
         <v>5</v>
@@ -3066,7 +3072,7 @@
         <v>16</v>
       </c>
       <c r="G36" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H36" s="4">
         <v>5</v>
@@ -3119,7 +3125,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H37" s="4">
         <v>5</v>
@@ -3163,7 +3169,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>15</v>
@@ -3172,7 +3178,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="4">
         <v>5</v>
@@ -3225,7 +3231,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H39" s="4">
         <v>5</v>
@@ -3269,7 +3275,7 @@
         <v>95</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>15</v>
@@ -3278,7 +3284,7 @@
         <v>16</v>
       </c>
       <c r="G40" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" s="4">
         <v>5</v>
@@ -3322,7 +3328,7 @@
         <v>97</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>15</v>
@@ -3331,7 +3337,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" s="4">
         <v>5</v>
@@ -3384,7 +3390,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="4">
         <v>5</v>
@@ -3428,7 +3434,7 @@
         <v>101</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>15</v>
@@ -3437,7 +3443,7 @@
         <v>16</v>
       </c>
       <c r="G43" s="4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H43" s="4">
         <v>5</v>
@@ -3492,7 +3498,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" s="4">
         <v>5</v>
@@ -3545,7 +3551,7 @@
         <v>16</v>
       </c>
       <c r="G45" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H45" s="4">
         <v>5</v>
@@ -3598,7 +3604,7 @@
         <v>16</v>
       </c>
       <c r="G46" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H46" s="4">
         <v>5</v>
@@ -3642,7 +3648,7 @@
         <v>110</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>15</v>
@@ -31380,17 +31386,17 @@
       <c r="AA1002" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L3 D4:L5 A6:L1002">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A6:F47 A3:F3 G3:L47">
     <cfRule type="expression" dxfId="53" priority="11">
       <formula>$L2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L3 D4:L5 A6:L1002">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A6:F47 A3:F3 G3:L47">
     <cfRule type="expression" dxfId="52" priority="12">
       <formula>$L2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L3 D4:L5 A6:L1002">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A6:F47 A3:F3 G3:L47">
     <cfRule type="expression" dxfId="51" priority="13">
       <formula>$L2="main"</formula>
     </cfRule>
@@ -31407,17 +31413,17 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:K29 F30:H33">
+  <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
     <cfRule type="expression" dxfId="50" priority="15">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:K29 F30:H33">
+  <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
     <cfRule type="expression" dxfId="49" priority="16">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:K29 F30:H33">
+  <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
     <cfRule type="expression" dxfId="48" priority="17">
       <formula>#REF!="main"</formula>
     </cfRule>
@@ -31434,152 +31440,152 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H40 F42:H43">
+  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
     <cfRule type="expression" dxfId="47" priority="19">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H40 F42:H43">
+  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
     <cfRule type="expression" dxfId="46" priority="20">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H40 F42:H43">
+  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
     <cfRule type="expression" dxfId="45" priority="21">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:H41">
+  <conditionalFormatting sqref="F41 H41">
     <cfRule type="expression" dxfId="44" priority="22">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:H41">
+  <conditionalFormatting sqref="F41 H41">
     <cfRule type="expression" dxfId="43" priority="23">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:H41">
+  <conditionalFormatting sqref="F41 H41">
     <cfRule type="expression" dxfId="42" priority="24">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
+  <conditionalFormatting sqref="F44 H44">
     <cfRule type="expression" dxfId="41" priority="25">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
+  <conditionalFormatting sqref="F44 H44">
     <cfRule type="expression" dxfId="40" priority="26">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
+  <conditionalFormatting sqref="F44 H44">
     <cfRule type="expression" dxfId="39" priority="27">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
+  <conditionalFormatting sqref="F44 H44">
     <cfRule type="expression" dxfId="38" priority="28">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
+  <conditionalFormatting sqref="F44 H44">
     <cfRule type="expression" dxfId="37" priority="29">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:H44">
+  <conditionalFormatting sqref="F44 H44">
     <cfRule type="expression" dxfId="36" priority="30">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
+  <conditionalFormatting sqref="F45 H45">
     <cfRule type="expression" dxfId="35" priority="31">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
+  <conditionalFormatting sqref="F45 H45">
     <cfRule type="expression" dxfId="34" priority="32">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
+  <conditionalFormatting sqref="F45 H45">
     <cfRule type="expression" dxfId="33" priority="33">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
+  <conditionalFormatting sqref="F45 H45">
     <cfRule type="expression" dxfId="32" priority="34">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
+  <conditionalFormatting sqref="F45 H45">
     <cfRule type="expression" dxfId="31" priority="35">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:H45">
+  <conditionalFormatting sqref="F45 H45">
     <cfRule type="expression" dxfId="30" priority="36">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
+  <conditionalFormatting sqref="F46 H46">
     <cfRule type="expression" dxfId="29" priority="37">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
+  <conditionalFormatting sqref="F46 H46">
     <cfRule type="expression" dxfId="28" priority="38">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
+  <conditionalFormatting sqref="F46 H46">
     <cfRule type="expression" dxfId="27" priority="39">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
+  <conditionalFormatting sqref="F46 H46">
     <cfRule type="expression" dxfId="26" priority="40">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
+  <conditionalFormatting sqref="F46 H46">
     <cfRule type="expression" dxfId="25" priority="41">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:H46">
+  <conditionalFormatting sqref="F46 H46">
     <cfRule type="expression" dxfId="24" priority="42">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
+  <conditionalFormatting sqref="F47 H47">
     <cfRule type="expression" dxfId="23" priority="43">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
+  <conditionalFormatting sqref="F47 H47">
     <cfRule type="expression" dxfId="22" priority="44">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
+  <conditionalFormatting sqref="F47 H47">
     <cfRule type="expression" dxfId="21" priority="45">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
+  <conditionalFormatting sqref="F47 H47">
     <cfRule type="expression" dxfId="20" priority="46">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
+  <conditionalFormatting sqref="F47 H47">
     <cfRule type="expression" dxfId="19" priority="47">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:H47">
+  <conditionalFormatting sqref="F47 H47">
     <cfRule type="expression" dxfId="18" priority="48">
       <formula>#REF!="main"</formula>
     </cfRule>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E52477B-DBEE-4594-9A7E-BF79DE060597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C814500C-E9C9-4D5A-9A8E-9EB9B2C014BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="126">
   <si>
     <t>name</t>
   </si>
@@ -385,6 +385,24 @@
   </si>
   <si>
     <t>('2021-04-07','2021-07-07')</t>
+  </si>
+  <si>
+    <t>[[[54.540252685546875,24.291407914292037],[54.61406707763672,24.291407914292037],[54.61406707763672,24.366488081551143],[54.540252685546875,24.366488081551143],[54.540252685546875,24.291407914292037]]]</t>
+  </si>
+  <si>
+    <t>[[[54.453049, 24.297666], [54.453049, 24.444649], [54.700241, 24.444649], [54.700241, 24.297666], [54.453049, 24.297666]]]</t>
+  </si>
+  <si>
+    <t>('2021-05-07','2021-08-07')</t>
+  </si>
+  <si>
+    <t>('2021-05-07','2021-07-17')</t>
+  </si>
+  <si>
+    <t>('2021-07-01','2021-09-07')</t>
+  </si>
+  <si>
+    <t>[[[55.201492, 25.149014], [55.201492, 25.287542], [55.440445, 25.287542], [55.440445, 25.149014], [55.201492, 25.149014]]]</t>
   </si>
 </sst>
 </file>
@@ -1163,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1264,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -1299,7 +1317,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -2105,7 +2123,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>26</v>
@@ -2114,7 +2132,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="4">
         <v>5</v>
@@ -2158,7 +2176,7 @@
         <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>26</v>
@@ -2167,7 +2185,7 @@
         <v>16</v>
       </c>
       <c r="G19" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H19" s="4">
         <v>5</v>
@@ -2473,10 +2491,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
@@ -3010,7 +3028,7 @@
         <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -3019,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
         <v>5</v>
@@ -31386,17 +31404,17 @@
       <c r="AA1002" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A6:F47 A3:F3 G3:L47">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
     <cfRule type="expression" dxfId="53" priority="11">
       <formula>$L2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A6:F47 A3:F3 G3:L47">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
     <cfRule type="expression" dxfId="52" priority="12">
       <formula>$L2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A6:F47 A3:F3 G3:L47">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
     <cfRule type="expression" dxfId="51" priority="13">
       <formula>$L2="main"</formula>
     </cfRule>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C814500C-E9C9-4D5A-9A8E-9EB9B2C014BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988EF4CC-40A3-4464-A547-E4D1DAB3BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROIs" sheetId="1" r:id="rId1"/>
@@ -535,7 +535,449 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="109">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF8EAADB"/>
+          <bgColor rgb="FF8EAADB"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFEF2CB"/>
+          <bgColor rgb="FFFEF2CB"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1182,7 +1624,7 @@
   <dimension ref="A1:AA1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -31405,22 +31847,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
-    <cfRule type="expression" dxfId="53" priority="11">
+    <cfRule type="expression" dxfId="108" priority="12">
       <formula>$L2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
-    <cfRule type="expression" dxfId="52" priority="12">
+    <cfRule type="expression" dxfId="107" priority="13">
       <formula>$L2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
-    <cfRule type="expression" dxfId="51" priority="13">
+    <cfRule type="expression" dxfId="106" priority="14">
       <formula>$L2="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 B6:B1002">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31432,22 +31874,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
-    <cfRule type="expression" dxfId="50" priority="15">
+    <cfRule type="expression" dxfId="105" priority="16">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
-    <cfRule type="expression" dxfId="49" priority="16">
+    <cfRule type="expression" dxfId="104" priority="17">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
-    <cfRule type="expression" dxfId="48" priority="17">
+    <cfRule type="expression" dxfId="103" priority="18">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3 B6:B1002">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31459,232 +31901,232 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="47" priority="19">
+    <cfRule type="expression" dxfId="102" priority="20">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="46" priority="20">
+    <cfRule type="expression" dxfId="101" priority="21">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="45" priority="21">
+    <cfRule type="expression" dxfId="100" priority="22">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="44" priority="22">
+    <cfRule type="expression" dxfId="99" priority="23">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="43" priority="23">
+    <cfRule type="expression" dxfId="98" priority="24">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="42" priority="24">
+    <cfRule type="expression" dxfId="97" priority="25">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="41" priority="25">
+    <cfRule type="expression" dxfId="96" priority="26">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="40" priority="26">
+    <cfRule type="expression" dxfId="95" priority="27">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="39" priority="27">
+    <cfRule type="expression" dxfId="94" priority="28">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="38" priority="28">
+    <cfRule type="expression" dxfId="93" priority="29">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="37" priority="29">
+    <cfRule type="expression" dxfId="92" priority="30">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="36" priority="30">
+    <cfRule type="expression" dxfId="91" priority="31">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="35" priority="31">
+    <cfRule type="expression" dxfId="90" priority="32">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="34" priority="32">
+    <cfRule type="expression" dxfId="89" priority="33">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="33" priority="33">
+    <cfRule type="expression" dxfId="88" priority="34">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="32" priority="34">
+    <cfRule type="expression" dxfId="87" priority="35">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="31" priority="35">
+    <cfRule type="expression" dxfId="86" priority="36">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="30" priority="36">
+    <cfRule type="expression" dxfId="85" priority="37">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="29" priority="37">
+    <cfRule type="expression" dxfId="84" priority="38">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="28" priority="38">
+    <cfRule type="expression" dxfId="83" priority="39">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="27" priority="39">
+    <cfRule type="expression" dxfId="82" priority="40">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="26" priority="40">
+    <cfRule type="expression" dxfId="81" priority="41">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="25" priority="41">
+    <cfRule type="expression" dxfId="80" priority="42">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="24" priority="42">
+    <cfRule type="expression" dxfId="79" priority="43">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="23" priority="43">
+    <cfRule type="expression" dxfId="78" priority="44">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="22" priority="44">
+    <cfRule type="expression" dxfId="77" priority="45">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="21" priority="45">
+    <cfRule type="expression" dxfId="76" priority="46">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="20" priority="46">
+    <cfRule type="expression" dxfId="75" priority="47">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="19" priority="47">
+    <cfRule type="expression" dxfId="74" priority="48">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="18" priority="48">
+    <cfRule type="expression" dxfId="73" priority="49">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="17" priority="49">
+    <cfRule type="expression" dxfId="72" priority="50">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="16" priority="50">
+    <cfRule type="expression" dxfId="71" priority="51">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="15" priority="51">
+    <cfRule type="expression" dxfId="70" priority="52">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="14" priority="52">
+    <cfRule type="expression" dxfId="69" priority="53">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="13" priority="53">
+    <cfRule type="expression" dxfId="68" priority="54">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="12" priority="54">
+    <cfRule type="expression" dxfId="67" priority="55">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="11" priority="55">
+    <cfRule type="expression" dxfId="66" priority="56">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="10" priority="56">
+    <cfRule type="expression" dxfId="65" priority="57">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="9" priority="57">
+    <cfRule type="expression" dxfId="64" priority="58">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="8" priority="58">
+    <cfRule type="expression" dxfId="63" priority="59">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="7" priority="59">
+    <cfRule type="expression" dxfId="62" priority="60">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="6" priority="60">
+    <cfRule type="expression" dxfId="61" priority="61">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="60" priority="7">
       <formula>$L4="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="59" priority="8">
       <formula>$L4="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="58" priority="9">
       <formula>$L4="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31696,7 +32138,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31708,22 +32150,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="57" priority="2">
       <formula>$L5="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="56" priority="3">
       <formula>$L5="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="55" priority="4">
       <formula>$L5="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31735,7 +32177,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -31746,6 +32188,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988EF4CC-40A3-4464-A547-E4D1DAB3BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C8DB4-27AF-4BD9-9D3D-BE5021CA648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t>[[[109.386406, 21.472559], [109.386406, 21.616579], [109.556351, 21.616579], [109.556351, 21.472559], [109.386406, 21.472559]]]</t>
-  </si>
-  <si>
-    <t>beihai_adj_gaoqiazhen</t>
-  </si>
-  <si>
-    <t>[[[109.632225, 21.592639], [109.632225, 21.756311], [109.816246, 21.756311], [109.816246, 21.592639], [109.632225, 21.592639]]]</t>
   </si>
   <si>
     <t>beirut</t>
@@ -535,7 +529,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="109">
+  <dxfs count="55">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -543,438 +537,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF8EAADB"/>
-          <bgColor rgb="FF8EAADB"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFEF2CB"/>
-          <bgColor rgb="FFFEF2CB"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1621,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA1002"/>
+  <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1675,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -1706,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -1730,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>17</v>
@@ -1759,7 +1321,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -1783,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>20</v>
@@ -1806,7 +1368,7 @@
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4">
         <v>21</v>
@@ -1836,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>17</v>
@@ -1859,7 +1421,7 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4">
         <v>21</v>
@@ -1889,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L5" s="6" t="s">
         <v>20</v>
@@ -1942,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L6" s="6" t="s">
         <v>23</v>
@@ -1995,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>17</v>
@@ -2048,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>20</v>
@@ -2101,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -2154,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -2189,7 +1751,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>16</v>
@@ -2207,12 +1769,14 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
@@ -2230,13 +1794,13 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" s="4">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -2260,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2303,7 +1867,7 @@
         <v>16</v>
       </c>
       <c r="G13" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
         <v>5</v>
@@ -2315,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2340,13 +1904,13 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4">
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -2370,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -2413,7 +1977,7 @@
         <v>16</v>
       </c>
       <c r="G15" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="4">
         <v>5</v>
@@ -2425,14 +1989,12 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
@@ -2480,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2512,16 +2074,16 @@
         <v>48</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="4">
         <v>5</v>
@@ -2530,13 +2092,13 @@
         <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -2565,7 +2127,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>26</v>
@@ -2586,10 +2148,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2618,16 +2180,16 @@
         <v>52</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G19" s="4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="4">
         <v>5</v>
@@ -2636,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -2680,7 +2242,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="4">
         <v>5</v>
@@ -2692,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2733,7 +2295,7 @@
         <v>16</v>
       </c>
       <c r="G21" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="4">
         <v>5</v>
@@ -2745,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2795,13 +2357,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -2830,7 +2392,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
@@ -2839,7 +2401,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <v>5</v>
@@ -2851,10 +2413,10 @@
         <v>18</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2880,10 +2442,10 @@
         <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
@@ -2904,10 +2466,10 @@
         <v>18</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2927,25 +2489,25 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H25" s="4">
         <v>5</v>
@@ -2954,15 +2516,17 @@
         <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M25" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2980,16 +2544,16 @@
     </row>
     <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>26</v>
@@ -3010,14 +2574,12 @@
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -3044,10 +2606,10 @@
         <v>68</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>16</v>
@@ -3065,10 +2627,10 @@
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -3118,12 +2680,14 @@
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M28" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
@@ -3141,16 +2705,16 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="4">
         <v>21</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>
@@ -3171,14 +2735,12 @@
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
@@ -3205,7 +2767,7 @@
         <v>75</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
@@ -3226,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -3258,7 +2820,7 @@
         <v>77</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>15</v>
@@ -3279,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -3332,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -3364,7 +2926,7 @@
         <v>81</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -3385,10 +2947,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
@@ -3417,7 +2979,7 @@
         <v>83</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
@@ -3426,7 +2988,7 @@
         <v>16</v>
       </c>
       <c r="G34" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="4">
         <v>5</v>
@@ -3438,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3470,7 +3032,7 @@
         <v>85</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>15</v>
@@ -3479,7 +3041,7 @@
         <v>16</v>
       </c>
       <c r="G35" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H35" s="4">
         <v>5</v>
@@ -3491,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
@@ -3544,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3576,7 +3138,7 @@
         <v>89</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
@@ -3585,7 +3147,7 @@
         <v>16</v>
       </c>
       <c r="G37" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H37" s="4">
         <v>5</v>
@@ -3597,10 +3159,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
@@ -3629,7 +3191,7 @@
         <v>91</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>15</v>
@@ -3638,7 +3200,7 @@
         <v>16</v>
       </c>
       <c r="G38" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="4">
         <v>5</v>
@@ -3650,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>17</v>
@@ -3682,7 +3244,7 @@
         <v>93</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>15</v>
@@ -3691,7 +3253,7 @@
         <v>16</v>
       </c>
       <c r="G39" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H39" s="4">
         <v>5</v>
@@ -3703,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3735,7 +3297,7 @@
         <v>95</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>15</v>
@@ -3756,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
@@ -3788,7 +3350,7 @@
         <v>97</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>15</v>
@@ -3797,7 +3359,7 @@
         <v>16</v>
       </c>
       <c r="G41" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H41" s="4">
         <v>5</v>
@@ -3809,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>17</v>
@@ -3841,7 +3403,7 @@
         <v>99</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>15</v>
@@ -3850,7 +3412,7 @@
         <v>16</v>
       </c>
       <c r="G42" s="4">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H42" s="4">
         <v>5</v>
@@ -3862,12 +3424,14 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="4"/>
+      <c r="M42" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
@@ -3885,16 +3449,16 @@
     </row>
     <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B43" s="4">
         <v>21</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>15</v>
@@ -3903,7 +3467,7 @@
         <v>16</v>
       </c>
       <c r="G43" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H43" s="4">
         <v>5</v>
@@ -3915,14 +3479,12 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>102</v>
-      </c>
+      <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -3958,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="G44" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H44" s="4">
         <v>5</v>
@@ -3970,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>17</v>
@@ -4023,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>17</v>
@@ -4055,7 +3617,7 @@
         <v>108</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>15</v>
@@ -4064,7 +3626,7 @@
         <v>16</v>
       </c>
       <c r="G46" s="4">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H46" s="4">
         <v>5</v>
@@ -4076,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
@@ -4098,42 +3660,18 @@
       <c r="AA46" s="4"/>
     </row>
     <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="4">
-        <v>21</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47" s="4">
-        <v>2</v>
-      </c>
-      <c r="H47" s="4">
-        <v>5</v>
-      </c>
-      <c r="I47" s="4">
-        <v>1</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -31816,312 +31354,259 @@
       <c r="Z1001" s="4"/>
       <c r="AA1001" s="4"/>
     </row>
-    <row r="1002" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1002" s="4"/>
-      <c r="B1002" s="4"/>
-      <c r="C1002" s="5"/>
-      <c r="D1002" s="4"/>
-      <c r="E1002" s="4"/>
-      <c r="F1002" s="6"/>
-      <c r="G1002" s="4"/>
-      <c r="H1002" s="4"/>
-      <c r="I1002" s="4"/>
-      <c r="J1002" s="4"/>
-      <c r="K1002" s="4"/>
-      <c r="L1002" s="6"/>
-      <c r="M1002" s="4"/>
-      <c r="N1002" s="4"/>
-      <c r="O1002" s="4"/>
-      <c r="P1002" s="4"/>
-      <c r="Q1002" s="4"/>
-      <c r="R1002" s="4"/>
-      <c r="S1002" s="4"/>
-      <c r="T1002" s="4"/>
-      <c r="U1002" s="4"/>
-      <c r="V1002" s="4"/>
-      <c r="W1002" s="4"/>
-      <c r="X1002" s="4"/>
-      <c r="Y1002" s="4"/>
-      <c r="Z1002" s="4"/>
-      <c r="AA1002" s="4"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
-    <cfRule type="expression" dxfId="108" priority="12">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A47:L1001 A3:F3 A6:F46 G3:L46">
+    <cfRule type="expression" dxfId="54" priority="12">
       <formula>$L2="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
-    <cfRule type="expression" dxfId="107" priority="13">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A47:L1001 A3:F3 A6:F46 G3:L46">
+    <cfRule type="expression" dxfId="53" priority="13">
       <formula>$L2="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:L2 D4:F5 A48:L1002 A3:F3 A6:F47 G3:L47">
-    <cfRule type="expression" dxfId="106" priority="14">
+  <conditionalFormatting sqref="A2:L2 D4:F5 A47:L1001 A3:F3 A6:F46 G3:L46">
+    <cfRule type="expression" dxfId="52" priority="14">
       <formula>$L2="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 B6:B1002">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF5A8AC6"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
-    <cfRule type="expression" dxfId="105" priority="16">
+  <conditionalFormatting sqref="F27:F32 H29:H32 H27:K28">
+    <cfRule type="expression" dxfId="51" priority="16">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
-    <cfRule type="expression" dxfId="104" priority="17">
+  <conditionalFormatting sqref="F27:F32 H29:H32 H27:K28">
+    <cfRule type="expression" dxfId="50" priority="17">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F33 H30:H33 H28:K29">
-    <cfRule type="expression" dxfId="103" priority="18">
+  <conditionalFormatting sqref="F27:F32 H29:H32 H27:K28">
+    <cfRule type="expression" dxfId="49" priority="18">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3 B6:B1002">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFC000"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF7030A0"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="102" priority="20">
+  <conditionalFormatting sqref="F33:F39 F41:F42 H41:H42 H33:H39">
+    <cfRule type="expression" dxfId="48" priority="20">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="101" priority="21">
+  <conditionalFormatting sqref="F33:F39 F41:F42 H41:H42 H33:H39">
+    <cfRule type="expression" dxfId="47" priority="21">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:F40 F42:F43 H42:H43 H34:H40">
-    <cfRule type="expression" dxfId="100" priority="22">
+  <conditionalFormatting sqref="F33:F39 F41:F42 H41:H42 H33:H39">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="99" priority="23">
+  <conditionalFormatting sqref="F40 H40">
+    <cfRule type="expression" dxfId="45" priority="23">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="98" priority="24">
+  <conditionalFormatting sqref="F40 H40">
+    <cfRule type="expression" dxfId="44" priority="24">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41 H41">
-    <cfRule type="expression" dxfId="97" priority="25">
+  <conditionalFormatting sqref="F40 H40">
+    <cfRule type="expression" dxfId="43" priority="25">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="42" priority="26">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="41" priority="27">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="40" priority="28">
+      <formula>#REF!="main"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="39" priority="29">
+      <formula>#REF!="adj"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="38" priority="30">
+      <formula>#REF!="buff"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43 H43">
+    <cfRule type="expression" dxfId="37" priority="31">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="96" priority="26">
+    <cfRule type="expression" dxfId="36" priority="32">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="95" priority="27">
+    <cfRule type="expression" dxfId="35" priority="33">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="94" priority="28">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="93" priority="29">
+    <cfRule type="expression" dxfId="33" priority="35">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="92" priority="30">
+    <cfRule type="expression" dxfId="32" priority="36">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44 H44">
-    <cfRule type="expression" dxfId="91" priority="31">
+    <cfRule type="expression" dxfId="31" priority="37">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="90" priority="32">
+    <cfRule type="expression" dxfId="30" priority="38">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="89" priority="33">
+    <cfRule type="expression" dxfId="29" priority="39">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="88" priority="34">
+    <cfRule type="expression" dxfId="28" priority="40">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="87" priority="35">
+    <cfRule type="expression" dxfId="27" priority="41">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="86" priority="36">
+    <cfRule type="expression" dxfId="26" priority="42">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45 H45">
-    <cfRule type="expression" dxfId="85" priority="37">
+    <cfRule type="expression" dxfId="25" priority="43">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="84" priority="38">
+    <cfRule type="expression" dxfId="24" priority="44">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="83" priority="39">
+    <cfRule type="expression" dxfId="23" priority="45">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="82" priority="40">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="81" priority="41">
+    <cfRule type="expression" dxfId="21" priority="47">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="80" priority="42">
+    <cfRule type="expression" dxfId="20" priority="48">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46 H46">
-    <cfRule type="expression" dxfId="79" priority="43">
+    <cfRule type="expression" dxfId="19" priority="49">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="78" priority="44">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="18" priority="50">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="77" priority="45">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="17" priority="51">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="76" priority="46">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="16" priority="52">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="75" priority="47">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="15" priority="53">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="74" priority="48">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="14" priority="54">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47 H47">
-    <cfRule type="expression" dxfId="73" priority="49">
+  <conditionalFormatting sqref="F47:H47">
+    <cfRule type="expression" dxfId="13" priority="55">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="72" priority="50">
+    <cfRule type="expression" dxfId="12" priority="56">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="71" priority="51">
+    <cfRule type="expression" dxfId="11" priority="57">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="70" priority="52">
+    <cfRule type="expression" dxfId="10" priority="58">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="69" priority="53">
+    <cfRule type="expression" dxfId="9" priority="59">
       <formula>#REF!="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="68" priority="54">
+    <cfRule type="expression" dxfId="8" priority="60">
       <formula>#REF!="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:H48">
-    <cfRule type="expression" dxfId="67" priority="55">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="66" priority="56">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="65" priority="57">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="64" priority="58">
-      <formula>#REF!="main"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="63" priority="59">
-      <formula>#REF!="adj"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="62" priority="60">
-      <formula>#REF!="buff"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F49:H49">
-    <cfRule type="expression" dxfId="61" priority="61">
+    <cfRule type="expression" dxfId="7" priority="61">
       <formula>#REF!="main"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="60" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$L4="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="59" priority="8">
+    <cfRule type="expression" dxfId="5" priority="8">
       <formula>$L4="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="expression" dxfId="58" priority="9">
+    <cfRule type="expression" dxfId="4" priority="9">
       <formula>$L4="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32150,17 +31635,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="57" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$L5="adj"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="56" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$L5="buff"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="55" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$L5="main"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32191,6 +31676,30 @@
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3 B6:B1001">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF5A8AC6"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3 B6:B1001">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFC000"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF7030A0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/dataset/21_ROIs.xlsx
+++ b/dataset/21_ROIs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\TemporalGAN\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7C8DB4-27AF-4BD9-9D3D-BE5021CA648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC1FF71-3AB7-4161-B592-D895EE7DA18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>abudhabi_buffed</t>
-  </si>
-  <si>
-    <t>[[[-48.170776, -15.884206], [-48.170776, -15.765294], [-47.870397, -15.765294], [-47.870397, -15.884206], [-48.170776, -15.884206]]]</t>
   </si>
   <si>
     <t>buff</t>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>[[[55.201492, 25.149014], [55.201492, 25.287542], [55.440445, 25.287542], [55.440445, 25.149014], [55.201492, 25.149014]]]</t>
+  </si>
+  <si>
+    <t>[[[-48.170776,-15.765294],[-48.170776,-15.884206],[-47.9136556669922,-15.884206],[-47.9136556669922,-15.765294]]]</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1186,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1237,7 +1237,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>10</v>
@@ -1268,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>14</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L2" s="6" t="s">
         <v>17</v>
@@ -1321,7 +1321,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>14</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" s="4">
         <v>21</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L4" s="6" t="s">
         <v>17</v>
@@ -1421,13 +1421,13 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" s="4">
         <v>21</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>14</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -1474,13 +1474,13 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="4">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>14</v>
@@ -1504,10 +1504,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1527,19 +1527,19 @@
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4">
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>17</v>
@@ -1580,19 +1580,19 @@
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
         <v>21</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>16</v>
@@ -1610,10 +1610,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -1633,19 +1633,19 @@
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4">
         <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>16</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>17</v>
@@ -1686,19 +1686,19 @@
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="4">
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>16</v>
@@ -1716,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="4">
         <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -1794,13 +1794,13 @@
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="4">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>14</v>
@@ -1824,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1849,13 +1849,13 @@
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="4">
         <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>14</v>
@@ -1879,13 +1879,13 @@
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -1904,13 +1904,13 @@
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="4">
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>14</v>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4">
         <v>21</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>14</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>17</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4">
         <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>14</v>
@@ -2042,10 +2042,10 @@
         <v>0</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -2065,19 +2065,19 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="4">
         <v>21</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>16</v>
@@ -2095,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>17</v>
@@ -2118,19 +2118,19 @@
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="4">
         <v>21</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>16</v>
@@ -2148,10 +2148,10 @@
         <v>18</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -2171,13 +2171,13 @@
     </row>
     <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>14</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>17</v>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="4">
         <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>14</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -2277,13 +2277,13 @@
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="4">
         <v>21</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>14</v>
@@ -2307,10 +2307,10 @@
         <v>0</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -2330,13 +2330,13 @@
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" s="4">
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>14</v>
@@ -2360,7 +2360,7 @@
         <v>18</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>17</v>
@@ -2383,16 +2383,16 @@
     </row>
     <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4">
         <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>15</v>
@@ -2413,10 +2413,10 @@
         <v>18</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -2436,16 +2436,16 @@
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="4">
         <v>21</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>15</v>
@@ -2466,10 +2466,10 @@
         <v>18</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -2489,19 +2489,19 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="4">
         <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>16</v>
@@ -2519,13 +2519,13 @@
         <v>0</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -2544,19 +2544,19 @@
     </row>
     <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="4">
         <v>21</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>16</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -2597,13 +2597,13 @@
     </row>
     <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27" s="4">
         <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>14</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>17</v>
@@ -2650,13 +2650,13 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="4">
         <v>21</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>14</v>
@@ -2680,13 +2680,13 @@
         <v>0</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="4">
         <v>21</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L29" s="6" t="s">
         <v>17</v>
@@ -2758,16 +2758,16 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="4">
         <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
@@ -2788,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2811,13 +2811,13 @@
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31" s="4">
         <v>21</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>14</v>
@@ -2841,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L31" s="6" t="s">
         <v>17</v>
@@ -2864,13 +2864,13 @@
     </row>
     <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="4">
         <v>21</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>14</v>
@@ -2894,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -2917,16 +2917,16 @@
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="4">
         <v>21</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L33" s="6" t="s">
         <v>17</v>
@@ -2970,16 +2970,16 @@
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B34" s="4">
         <v>21</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>15</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M34" s="4"/>
       <c r="N34" s="4"/>
@@ -3023,13 +3023,13 @@
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B35" s="4">
         <v>21</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>14</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L35" s="6" t="s">
         <v>17</v>
@@ -3076,13 +3076,13 @@
     </row>
     <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36" s="4">
         <v>21</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>14</v>
@@ -3106,10 +3106,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
@@ -3129,16 +3129,16 @@
     </row>
     <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B37" s="4">
         <v>21</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>15</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L37" s="6" t="s">
         <v>17</v>
@@ -3182,13 +3182,13 @@
     </row>
     <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B38" s="4">
         <v>21</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>14</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L38" s="6" t="s">
         <v>17</v>
@@ -3235,16 +3235,16 @@
     </row>
     <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B39" s="4">
         <v>21</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>15</v>
@@ -3265,10 +3265,10 @@
         <v>0</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
@@ -3288,16 +3288,16 @@
     </row>
     <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B40" s="4">
         <v>21</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>15</v>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L40" s="6" t="s">
         <v>17</v>
@@ -3341,13 +3341,13 @@
     </row>
     <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" s="4">
         <v>21</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>14</v>
@@ -3371,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>17</v>
@@ -3394,16 +3394,16 @@
     </row>
     <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="4">
         <v>21</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>15</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L42" s="6" t="s">
         <v>17</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -3449,13 +3449,13 @@
     </row>
     <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="4">
         <v>21</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>14</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L43" s="6" t="s">
         <v>17</v>
@@ -3502,13 +3502,13 @@
     </row>
     <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B44" s="4">
         <v>21</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>14</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L44" s="6" t="s">
         <v>17</v>
@@ -3555,13 +3555,13 @@
     </row>
     <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="4">
         <v>21</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>14</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L45" s="6" t="s">
         <v>17</v>
@@ -3608,16 +3608,16 @@
     </row>
     <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46" s="4">
         <v>21</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>15</v>
@@ -3638,10 +3638,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
